--- a/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DD446A-A07C-44EE-8BFB-BE3A305502A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6EA9D0-86B0-4C10-8E7D-B66D387D6491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0735DE85-7FC9-46CA-9DD3-87EF9F00C688}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FD2007BB-E30E-4635-ADC6-E06FDFBDE22F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,54 +84,252 @@
     <t>30,57%</t>
   </si>
   <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>19,38%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
     <t>31,58%</t>
   </si>
   <si>
@@ -153,202 +351,190 @@
     <t>49,54%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,03%</t>
@@ -372,211 +558,199 @@
     <t>26,49%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
     <t>Menores según el año que llegó a andalucía en 2015 (Tasa respuesta: 1,22%)</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
     <t>30,82%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>20,69%</t>
@@ -591,186 +765,180 @@
     <t>53,0%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>11,25%</t>
   </si>
   <si>
@@ -778,174 +946,6 @@
   </si>
   <si>
     <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930A709B-C034-4363-9ED1-4876945956FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09140D71-806E-4C1A-B2FF-3F33996AFA4F}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1725,106 +1725,106 @@
         <v>12</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1842,19 +1842,19 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
@@ -1899,34 +1899,34 @@
         <v>627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1944,76 +1944,76 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2031,40 +2031,40 @@
         <v>12</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2166,7 +2166,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2268,7 +2268,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2372,73 +2372,73 @@
         <v>30</v>
       </c>
       <c r="B22" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1356</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>675</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2031</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2453,28 +2453,28 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2489,43 +2489,43 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2570,28 +2570,28 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2606,28 +2606,28 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2642,43 +2642,43 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2693,58 +2693,58 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2759,22 +2759,22 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,157 +2783,157 @@
         <v>2007</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>1357</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>2078</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2999,94 +2999,94 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3182,13 +3182,13 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,10 +3242,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4293</v>
+        <v>4011</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>29</v>
@@ -3257,10 +3257,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I39" s="7">
-        <v>5572</v>
+        <v>3193</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>29</v>
@@ -3272,10 +3272,10 @@
         <v>29</v>
       </c>
       <c r="M39" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>9865</v>
+        <v>7204</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>29</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B40" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3388,13 +3388,13 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3439,64 +3439,64 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3511,43 +3511,43 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3592,109 +3592,109 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="M46" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="7">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C47" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="M47" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,70 +3703,70 @@
         <v>2007</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M48" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3781,28 +3781,28 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3817,34 +3817,34 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>656</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7">
+        <v>656</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="P50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>76</v>
@@ -3853,7 +3853,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3868,58 +3868,58 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3934,28 +3934,28 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -4021,58 +4021,58 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M54" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N54" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4087,73 +4087,73 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="7">
-        <v>4011</v>
+        <v>4293</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>29</v>
@@ -4177,10 +4177,10 @@
         <v>29</v>
       </c>
       <c r="H57" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>3193</v>
+        <v>5572</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>29</v>
@@ -4192,10 +4192,10 @@
         <v>29</v>
       </c>
       <c r="M57" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>7204</v>
+        <v>9865</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>29</v>
@@ -4212,73 +4212,73 @@
         <v>3</v>
       </c>
       <c r="B58" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7">
-        <v>675</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M58" s="7">
-        <v>3</v>
-      </c>
-      <c r="N58" s="7">
-        <v>2031</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C59" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4293,28 +4293,28 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -4329,145 +4329,145 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="M60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="H61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="M61" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="M62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>668</v>
+        <v>1351</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -4482,139 +4482,139 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>582</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M64" s="7">
         <v>2</v>
       </c>
-      <c r="I64" s="7">
-        <v>1650</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M64" s="7">
-        <v>3</v>
-      </c>
       <c r="N64" s="7">
-        <v>2324</v>
+        <v>1338</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
-        <v>1987</v>
+        <v>1273</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="M65" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N65" s="7">
-        <v>2708</v>
+        <v>1273</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4629,13 @@
         <v>654</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4644,13 +4644,13 @@
         <v>1283</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4659,121 +4659,121 @@
         <v>1937</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C67" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="7">
-        <v>1273</v>
+        <v>1987</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="M67" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N67" s="7">
-        <v>1273</v>
+        <v>2708</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>756</v>
+        <v>674</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="7">
-        <v>582</v>
+        <v>1650</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="M68" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" s="7">
-        <v>1338</v>
+        <v>2324</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -4788,145 +4788,145 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>670</v>
+        <v>595</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>670</v>
+        <v>595</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="H70" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="M70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>1351</v>
+        <v>668</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C71" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="H71" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="7">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="M71" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" s="7">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -4941,58 +4941,58 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H72" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="M72" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C73" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="7">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5007,70 +5007,70 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M73" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73" s="7">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="H74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="M74" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74" s="7">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>172</v>
@@ -5143,7 +5143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2366BB20-DDA6-43BC-9325-B0952BF3E36F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302E57E8-65B4-431A-80E0-14679B56EACB}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5258,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -5303,79 +5303,79 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5393,25 +5393,25 @@
         <v>174</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5456,13 +5456,13 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5507,13 +5507,13 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5609,13 +5609,13 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5711,13 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5762,13 +5762,13 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5813,13 +5813,13 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5864,13 +5864,13 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5915,13 +5915,13 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5966,28 +5966,28 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6005,76 +6005,76 @@
         <v>174</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6178,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6223,13 +6223,13 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6274,28 +6274,28 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6310,130 +6310,130 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1141</v>
+        <v>1339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -6448,43 +6448,43 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -6499,43 +6499,43 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6550,37 +6550,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>540</v>
+        <v>1857</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>540</v>
+        <v>1857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,70 +6589,70 @@
         <v>2007</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>824</v>
+        <v>640</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>824</v>
+        <v>1728</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6667,28 +6667,28 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6733,13 +6733,13 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6805,94 +6805,94 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6907,7 +6907,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6988,13 +6988,13 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -7009,37 +7009,37 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,10 +7048,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>1389</v>
+        <v>4269</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>29</v>
@@ -7063,10 +7063,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I39" s="7">
-        <v>5515</v>
+        <v>4028</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>29</v>
@@ -7078,10 +7078,10 @@
         <v>29</v>
       </c>
       <c r="M39" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N39" s="7">
-        <v>6904</v>
+        <v>8298</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>29</v>
@@ -7095,10 +7095,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B40" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -7113,43 +7113,43 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7194,13 +7194,13 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7230,7 +7230,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7245,64 +7245,64 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -7317,43 +7317,43 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7449,28 +7449,28 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7485,22 +7485,22 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,55 +7509,55 @@
         <v>2007</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>640</v>
+        <v>824</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>1728</v>
+        <v>824</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -7572,43 +7572,43 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H49" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>1857</v>
+        <v>540</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M49" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>1857</v>
+        <v>540</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -7623,43 +7623,43 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -7674,160 +7674,160 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="7">
         <v>2</v>
       </c>
-      <c r="D52" s="7">
-        <v>1339</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
       </c>
       <c r="N52" s="7">
-        <v>1339</v>
+        <v>1141</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="M53" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="7">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7842,28 +7842,28 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,10 +7968,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7">
-        <v>4269</v>
+        <v>1389</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>29</v>
@@ -7983,10 +7983,10 @@
         <v>29</v>
       </c>
       <c r="H57" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>4028</v>
+        <v>5515</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>29</v>
@@ -7998,10 +7998,10 @@
         <v>29</v>
       </c>
       <c r="M57" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N57" s="7">
-        <v>8298</v>
+        <v>6904</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>29</v>
@@ -8018,7 +8018,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -8036,106 +8036,106 @@
         <v>242</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1403</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>597</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
+      <c r="N59" s="7">
         <v>2000</v>
       </c>
-      <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
       <c r="O59" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8150,130 +8150,130 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C61" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H61" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="7">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="M61" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N61" s="7">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="H62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>1141</v>
+        <v>765</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" s="7">
-        <v>1141</v>
+        <v>2104</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -8291,40 +8291,40 @@
         <v>242</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -8342,85 +8342,85 @@
         <v>242</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="7">
-        <v>540</v>
+        <v>1857</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M65" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N65" s="7">
-        <v>1148</v>
+        <v>2528</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8435,13 @@
         <v>1087</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -8450,13 +8450,13 @@
         <v>1464</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -8465,70 +8465,70 @@
         <v>2551</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="H67" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" s="7">
-        <v>1857</v>
+        <v>540</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M67" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67" s="7">
-        <v>2528</v>
+        <v>1148</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -8546,40 +8546,40 @@
         <v>242</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M68" s="7">
-        <v>1</v>
-      </c>
-      <c r="N68" s="7">
-        <v>640</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -8597,157 +8597,157 @@
         <v>242</v>
       </c>
       <c r="H69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="M69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H70" s="7">
         <v>2</v>
       </c>
-      <c r="D70" s="7">
-        <v>1339</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
       <c r="I70" s="7">
-        <v>765</v>
+        <v>1141</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="M70" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70" s="7">
-        <v>2104</v>
+        <v>1141</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C71" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" s="7">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="H71" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="M71" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N71" s="7">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C72" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" s="7">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8762,79 +8762,79 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M72" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" s="7">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C73" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="H73" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="M73" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N73" s="7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -8852,34 +8852,34 @@
         <v>242</v>
       </c>
       <c r="H74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>299</v>
+        <v>10</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="M74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6EA9D0-86B0-4C10-8E7D-B66D387D6491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3E8EF8-2F24-4FAD-8D7B-510340C2BFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FD2007BB-E30E-4635-ADC6-E06FDFBDE22F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98AE6ACD-4ED9-4329-B68F-4E97E96D30B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="303">
-  <si>
-    <t>Menores según el año que llegó a andalucía en 2012 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="313">
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -75,820 +75,844 @@
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,22%)</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a andalucía en 2015 (Tasa respuesta: 1,22%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>37,8%</t>
+    <t>39,69%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>23,7%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>57,06%</t>
+    <t>50,66%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>25,89%</t>
+    <t>31,34%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>52,39%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>22,4%</t>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>46,32%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>40,23%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>50,7%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>37,16%</t>
+    <t>38,32%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>14,15%</t>
@@ -900,52 +924,58 @@
     <t>14,44%</t>
   </si>
   <si>
-    <t>41,96%</t>
+    <t>41,06%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>35,25%</t>
+    <t>35,13%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>22,71%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>20,38%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>34,08%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
+    <t>19,94%</t>
+  </si>
+  <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>34,8%</t>
+    <t>36,69%</t>
   </si>
   <si>
     <t>6,4%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +986,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1052,39 +1082,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1136,7 +1166,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1247,13 +1277,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1262,6 +1285,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1326,19 +1356,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09140D71-806E-4C1A-B2FF-3F33996AFA4F}">
-  <dimension ref="A1:Q75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E35BDFD-9009-4B9C-9E87-98C9003D77AA}">
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1472,14 +1522,12 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1497,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,14 +1571,12 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -1548,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,14 +1620,12 @@
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -1599,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,14 +1669,12 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1650,7 +1692,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,14 +1718,12 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -1701,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,34 +1765,32 @@
         <v>12</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,43 +1805,41 @@
         <v>756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>582</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>756</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1338</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,49 +1848,47 @@
         <v>2008</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,34 +1912,32 @@
         <v>12</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,14 +1963,12 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1956,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,14 +2012,12 @@
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>13</v>
@@ -2007,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,14 +2061,12 @@
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>13</v>
@@ -2058,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,14 +2110,12 @@
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2109,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,14 +2159,12 @@
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -2160,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,14 +2208,12 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>13</v>
@@ -2211,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,14 +2257,12 @@
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -2262,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,14 +2306,12 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -2313,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,54 +2338,52 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1356</v>
+        <v>756</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>3236</v>
+        <v>756</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>2015</v>
@@ -2387,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2402,7 +2416,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2417,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2453,7 +2467,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2468,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2504,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2519,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2555,7 +2569,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2570,7 +2584,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2606,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2621,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,37 +2656,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,37 +2707,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,19 +2746,19 @@
         <v>2008</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>673</v>
+        <v>1273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2759,22 +2773,22 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>673</v>
+        <v>1273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,43 +2803,43 @@
         <v>654</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>656</v>
+        <v>1283</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>1310</v>
+        <v>1937</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,49 +2848,49 @@
         <v>2006</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>1357</v>
+        <v>654</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2078</v>
+        <v>1375</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,19 +2899,19 @@
         <v>2005</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2906,28 +2920,28 @@
         <v>994</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>1668</v>
+        <v>994</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2963,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2978,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3014,7 +3028,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3029,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,49 +3052,49 @@
         <v>2002</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3116,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3131,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3167,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3182,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3218,7 +3232,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3233,7 +3247,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,54 +3256,54 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2581</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="7">
         <v>6</v>
       </c>
-      <c r="D39" s="7">
-        <v>4011</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="7">
-        <v>4</v>
-      </c>
       <c r="I39" s="7">
-        <v>3193</v>
+        <v>4251</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>7204</v>
+        <v>6832</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5">
         <v>2015</v>
@@ -3307,7 +3321,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3322,7 +3336,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3337,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3373,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3388,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3424,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3439,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3475,7 +3489,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3490,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,37 +3525,37 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>1351</v>
+        <v>701</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1351</v>
+        <v>701</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3577,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3592,7 +3606,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3628,7 +3642,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3643,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3678,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3679,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3694,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3729,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3730,7 +3744,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -3745,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,16 +3771,16 @@
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3781,22 +3795,22 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,19 +3819,19 @@
         <v>2005</v>
       </c>
       <c r="C50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3826,28 +3840,28 @@
         <v>656</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>656</v>
+        <v>1330</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3877,13 +3891,13 @@
         <v>595</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -3892,13 +3906,13 @@
         <v>595</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,19 +3921,19 @@
         <v>2003</v>
       </c>
       <c r="C52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3934,22 +3948,22 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,49 +3972,49 @@
         <v>2002</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,37 +4035,37 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
-        <v>2295</v>
+        <v>1391</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54" s="7">
-        <v>2295</v>
+        <v>1391</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,19 +4074,19 @@
         <v>2000</v>
       </c>
       <c r="C55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4087,22 +4101,22 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,49 +4125,49 @@
         <v>1999</v>
       </c>
       <c r="C56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>1356</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M56" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>2031</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,54 +4176,54 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D57" s="7">
-        <v>4293</v>
+        <v>2031</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H57" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I57" s="7">
-        <v>5572</v>
+        <v>4164</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M57" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N57" s="7">
-        <v>9865</v>
+        <v>6195</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B58" s="5">
         <v>2015</v>
@@ -4227,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4242,7 +4256,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4257,7 +4271,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4292,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4293,7 +4307,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4308,7 +4322,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4344,7 +4358,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4359,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4395,7 +4409,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4410,7 +4424,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,37 +4445,37 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>1351</v>
+        <v>650</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="M62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62" s="7">
-        <v>1351</v>
+        <v>650</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,37 +4496,37 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +4535,49 @@
         <v>2009</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M64" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,19 +4586,19 @@
         <v>2008</v>
       </c>
       <c r="C65" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4599,22 +4613,22 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M65" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,49 +4637,49 @@
         <v>2007</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="H66" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="M66" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N66" s="7">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,49 +4688,49 @@
         <v>2006</v>
       </c>
       <c r="C67" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>1987</v>
+        <v>630</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="7">
         <v>1</v>
       </c>
-      <c r="I67" s="7">
-        <v>722</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M67" s="7">
-        <v>4</v>
-      </c>
       <c r="N67" s="7">
-        <v>2708</v>
+        <v>630</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,49 +4739,49 @@
         <v>2005</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="H68" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="M68" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,37 +4802,37 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="M69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4847,13 @@
         <v>668</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4854,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4863,13 +4877,13 @@
         <v>668</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,49 +4892,49 @@
         <v>2002</v>
       </c>
       <c r="C71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="H71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="M71" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" s="7">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,37 +4955,37 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H72" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" s="7">
-        <v>2295</v>
+        <v>904</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="M72" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>2295</v>
+        <v>904</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5000,13 @@
         <v>1639</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5007,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5016,13 +5030,13 @@
         <v>1639</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,16 +5048,16 @@
         <v>2</v>
       </c>
       <c r="D74" s="7">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5052,13 +5066,13 @@
         <v>675</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -5067,13 +5081,13 @@
         <v>2031</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,55 +5096,981 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
+        <v>7</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4293</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="7">
+        <v>3</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2229</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="7">
+        <v>10</v>
+      </c>
+      <c r="N75" s="7">
+        <v>6522</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="7">
+        <v>2</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1351</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="7">
+        <v>2</v>
+      </c>
+      <c r="N80" s="7">
+        <v>1351</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="7">
+        <v>670</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M81" s="7">
+        <v>1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>670</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>756</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="7">
+        <v>582</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M82" s="7">
+        <v>2</v>
+      </c>
+      <c r="N82" s="7">
+        <v>1338</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1273</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M83" s="7">
+        <v>2</v>
+      </c>
+      <c r="N83" s="7">
+        <v>1273</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
+        <v>654</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" s="7">
+        <v>2</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1283</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M84" s="7">
+        <v>3</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1937</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1987</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <v>722</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M85" s="7">
+        <v>4</v>
+      </c>
+      <c r="N85" s="7">
+        <v>2708</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>674</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" s="7">
+        <v>2</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1650</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M86" s="7">
+        <v>3</v>
+      </c>
+      <c r="N86" s="7">
+        <v>2324</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7">
+        <v>595</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>595</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
+        <v>668</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M88" s="7">
+        <v>1</v>
+      </c>
+      <c r="N88" s="7">
+        <v>668</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
+        <v>654</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="7">
+        <v>822</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M89" s="7">
+        <v>2</v>
+      </c>
+      <c r="N89" s="7">
+        <v>1475</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="7">
+        <v>3</v>
+      </c>
+      <c r="I90" s="7">
+        <v>2295</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M90" s="7">
+        <v>3</v>
+      </c>
+      <c r="N90" s="7">
+        <v>2295</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C91" s="7">
+        <v>3</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1639</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M91" s="7">
+        <v>3</v>
+      </c>
+      <c r="N91" s="7">
+        <v>1639</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C92" s="7">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1355</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7">
+        <v>675</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M92" s="7">
+        <v>3</v>
+      </c>
+      <c r="N92" s="7">
+        <v>2031</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7">
         <v>15</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D93" s="7">
         <v>9660</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="7">
+      <c r="E93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="7">
         <v>15</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I93" s="7">
         <v>10645</v>
       </c>
-      <c r="J75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="7">
+      <c r="J93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="7">
         <v>30</v>
       </c>
-      <c r="N75" s="7">
+      <c r="N93" s="7">
         <v>20305</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>29</v>
+      <c r="O93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A40:A57"/>
     <mergeCell ref="A58:A75"/>
+    <mergeCell ref="A76:A93"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5143,8 +6083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302E57E8-65B4-431A-80E0-14679B56EACB}">
-  <dimension ref="A1:Q75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5AFBE1-F043-4CC1-83D7-21218B14F2C7}">
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5160,7 +6100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5273,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5288,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5303,7 +6243,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,19 +6252,19 @@
         <v>2014</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1403</v>
+        <v>795</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5333,28 +6273,28 @@
         <v>597</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1999</v>
+        <v>1392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +6309,13 @@
         <v>625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5390,7 +6330,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5399,13 +6339,13 @@
         <v>625</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,7 +6366,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5441,7 +6381,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5456,7 +6396,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5492,7 +6432,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5507,7 +6447,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +6468,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5543,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5558,7 +6498,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5594,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5609,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,7 +6570,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5645,7 +6585,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5660,7 +6600,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,7 +6621,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5696,7 +6636,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5711,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5747,7 +6687,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5762,7 +6702,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +6723,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5798,7 +6738,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5813,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +6774,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5849,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5864,7 +6804,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +6825,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5900,7 +6840,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5915,7 +6855,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +6876,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5951,7 +6891,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5966,7 +6906,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6927,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6002,7 +6942,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6017,7 +6957,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,7 +6978,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6053,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6068,7 +7008,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6104,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6119,7 +7059,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,19 +7068,19 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>2028</v>
+        <v>1420</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6149,33 +7089,33 @@
         <v>597</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2624</v>
+        <v>2017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>2015</v>
@@ -6193,7 +7133,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6208,7 +7148,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6223,7 +7163,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,19 +7172,19 @@
         <v>2014</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6259,22 +7199,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +7229,13 @@
         <v>665</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6310,22 +7250,22 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +7280,13 @@
         <v>569</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6355,13 +7295,13 @@
         <v>891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6370,13 +7310,13 @@
         <v>1460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,19 +7325,19 @@
         <v>2011</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1339</v>
+        <v>626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6412,22 +7352,22 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1339</v>
+        <v>626</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +7388,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6463,7 +7403,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6478,7 +7418,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,7 +7439,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6508,13 +7448,13 @@
         <v>640</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6523,13 +7463,13 @@
         <v>640</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,37 +7490,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,49 +7529,49 @@
         <v>2007</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>1728</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,19 +7580,19 @@
         <v>2006</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6667,22 +7607,22 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,7 +7643,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6718,7 +7658,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6733,7 +7673,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +7694,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6769,7 +7709,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6784,7 +7724,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +7745,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6820,7 +7760,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6835,7 +7775,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +7796,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6871,7 +7811,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6886,7 +7826,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,7 +7847,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6922,7 +7862,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6937,7 +7877,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,7 +7898,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6973,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6988,7 +7928,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7024,7 +7964,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7039,7 +7979,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,54 +7988,54 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2468</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1531</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="7">
         <v>6</v>
       </c>
-      <c r="D39" s="7">
-        <v>4269</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="7">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="7">
-        <v>12</v>
-      </c>
       <c r="N39" s="7">
-        <v>8298</v>
+        <v>3999</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5">
         <v>2015</v>
@@ -7113,7 +8053,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -7122,13 +8062,13 @@
         <v>824</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7137,13 +8077,13 @@
         <v>824</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +8104,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7179,7 +8119,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7194,7 +8134,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +8155,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7230,7 +8170,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7245,7 +8185,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,19 +8194,19 @@
         <v>2012</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -7275,28 +8215,28 @@
         <v>722</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>1440</v>
+        <v>722</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,49 +8245,49 @@
         <v>2011</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>765</v>
+        <v>713</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,7 +8308,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7383,7 +8323,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7398,7 +8338,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +8359,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7434,7 +8374,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7449,7 +8389,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,49 +8398,49 @@
         <v>2008</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>671</v>
+        <v>1857</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,49 +8449,49 @@
         <v>2007</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>824</v>
+        <v>640</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" s="7">
-        <v>824</v>
+        <v>1728</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,19 +8500,19 @@
         <v>2006</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -7581,28 +8521,28 @@
         <v>540</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="7">
-        <v>540</v>
+        <v>1148</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +8563,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7638,7 +8578,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7653,7 +8593,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +8614,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -7683,13 +8623,13 @@
         <v>700</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -7698,13 +8638,13 @@
         <v>700</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,37 +8665,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="M52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,7 +8716,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7791,7 +8731,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -7806,7 +8746,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,7 +8767,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7842,7 +8782,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7857,7 +8797,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,7 +8818,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7893,7 +8833,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7908,7 +8848,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7944,7 +8884,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7959,7 +8899,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,54 +8908,54 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="7">
-        <v>1389</v>
+        <v>2409</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H57" s="7">
         <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>5515</v>
+        <v>5283</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M57" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N57" s="7">
-        <v>6904</v>
+        <v>7691</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B58" s="5">
         <v>2015</v>
@@ -8033,37 +8973,37 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="M58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,49 +9012,49 @@
         <v>2014</v>
       </c>
       <c r="C59" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="H59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,19 +9063,19 @@
         <v>2013</v>
       </c>
       <c r="C60" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8150,22 +9090,22 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M60" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,49 +9114,49 @@
         <v>2012</v>
       </c>
       <c r="C61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>1288</v>
+        <v>718</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="H61" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="M61" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>2900</v>
+        <v>718</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,19 +9165,19 @@
         <v>2011</v>
       </c>
       <c r="C62" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -8246,28 +9186,28 @@
         <v>765</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62" s="7">
-        <v>2104</v>
+        <v>765</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8303,7 +9243,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -8318,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,37 +9279,37 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="M64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8384,43 +9324,43 @@
         <v>671</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="H65" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="M65" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>2528</v>
+        <v>671</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,49 +9369,49 @@
         <v>2007</v>
       </c>
       <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="7">
         <v>1</v>
       </c>
-      <c r="D66" s="7">
-        <v>1087</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H66" s="7">
-        <v>2</v>
-      </c>
       <c r="I66" s="7">
-        <v>1464</v>
+        <v>824</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="M66" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N66" s="7">
-        <v>2551</v>
+        <v>824</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,49 +9420,49 @@
         <v>2006</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="H67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="M67" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" s="7">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>296</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,7 +9483,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -8558,7 +9498,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -8573,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,37 +9534,37 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>297</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="M69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>299</v>
+        <v>10</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,7 +9585,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -8654,13 +9594,13 @@
         <v>1141</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -8669,13 +9609,13 @@
         <v>1141</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,7 +9636,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -8711,7 +9651,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -8726,7 +9666,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8762,7 +9702,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -8777,7 +9717,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,7 +9738,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8813,7 +9753,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -8828,7 +9768,7 @@
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,7 +9789,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -8864,7 +9804,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -8879,7 +9819,7 @@
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -8888,55 +9828,981 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D75" s="7">
+        <v>1389</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2730</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="7">
+        <v>6</v>
+      </c>
+      <c r="N75" s="7">
+        <v>4118</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7">
+        <v>824</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M76" s="7">
+        <v>1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>824</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1403</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="7">
+        <v>597</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M77" s="7">
+        <v>3</v>
+      </c>
+      <c r="N77" s="7">
+        <v>2000</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1291</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2</v>
+      </c>
+      <c r="N78" s="7">
+        <v>1290</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C79" s="7">
+        <v>2</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1288</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="7">
+        <v>2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>1612</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M79" s="7">
+        <v>4</v>
+      </c>
+      <c r="N79" s="7">
+        <v>2900</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1339</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H80" s="7">
+        <v>1</v>
+      </c>
+      <c r="I80" s="7">
+        <v>765</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3</v>
+      </c>
+      <c r="N80" s="7">
+        <v>2104</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="7">
+        <v>640</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M82" s="7">
+        <v>1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>640</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7">
+        <v>671</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="7">
+        <v>3</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1857</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83" s="7">
+        <v>4</v>
+      </c>
+      <c r="N83" s="7">
+        <v>2528</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1087</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H84" s="7">
+        <v>2</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1464</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M84" s="7">
+        <v>3</v>
+      </c>
+      <c r="N84" s="7">
+        <v>2551</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
+        <v>608</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <v>540</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M85" s="7">
+        <v>2</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1148</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7">
+        <v>700</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>700</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H88" s="7">
+        <v>2</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1141</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M88" s="7">
+        <v>2</v>
+      </c>
+      <c r="N88" s="7">
+        <v>1141</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C92" s="7">
+        <v>0</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7">
+        <v>11</v>
+      </c>
+      <c r="D93" s="7">
         <v>7686</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="7">
+      <c r="E93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="7">
         <v>15</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I93" s="7">
         <v>10140</v>
       </c>
-      <c r="J75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="7">
+      <c r="J93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="7">
         <v>26</v>
       </c>
-      <c r="N75" s="7">
+      <c r="N93" s="7">
         <v>17826</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>29</v>
+      <c r="O93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A40:A57"/>
     <mergeCell ref="A58:A75"/>
+    <mergeCell ref="A76:A93"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3E8EF8-2F24-4FAD-8D7B-510340C2BFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F22580-D7DD-4EF8-A47D-77A4D6A1B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98AE6ACD-4ED9-4329-B68F-4E97E96D30B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9D0997F-3D4A-40C5-9B2C-1CCAB53D3D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,25 +105,25 @@
     <t>15,76%</t>
   </si>
   <si>
-    <t>68,91%</t>
+    <t>57,0%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>41,08%</t>
+    <t>41,12%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>64,22%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>37,79%</t>
+    <t>37,51%</t>
   </si>
   <si>
     <t>49,34%</t>
@@ -132,52 +132,52 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>49,45%</t>
+    <t>49,69%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
+    <t>76,57%</t>
+  </si>
+  <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>79,71%</t>
+    <t>67,81%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>63,44%</t>
+    <t>70,42%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>59,5%</t>
+    <t>56,38%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>75,86%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>61,72%</t>
+    <t>52,06%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -192,13 +192,13 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>67,56%</t>
+    <t>67,59%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>45,83%</t>
+    <t>45,41%</t>
   </si>
   <si>
     <t>34,61%</t>
@@ -207,7 +207,7 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>46,62%</t>
+    <t>46,21%</t>
   </si>
   <si>
     <t>33,19%</t>
@@ -216,25 +216,25 @@
     <t>15,74%</t>
   </si>
   <si>
-    <t>64,93%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>55,18%</t>
+    <t>55,23%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>63,69%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>41,24%</t>
+    <t>45,81%</t>
   </si>
   <si>
     <t>32,2%</t>
@@ -243,25 +243,25 @@
     <t>19,73%</t>
   </si>
   <si>
-    <t>72,43%</t>
+    <t>72,29%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>58,76%</t>
+    <t>58,92%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>80,84%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>58,26%</t>
+    <t>57,21%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -276,31 +276,31 @@
     <t>9,97%</t>
   </si>
   <si>
-    <t>43,08%</t>
+    <t>42,24%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>60,29%</t>
+    <t>70,29%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>47,92%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>15,57%</t>
   </si>
   <si>
-    <t>61,32%</t>
+    <t>62,51%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>42,97%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>40,55%</t>
@@ -309,31 +309,31 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>51,05%</t>
+    <t>60,62%</t>
   </si>
   <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>76,07%</t>
+    <t>76,1%</t>
   </si>
   <si>
     <t>30,29%</t>
@@ -342,10 +342,10 @@
     <t>31,13%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -357,625 +357,625 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>23,92%</t>
+    <t>24,33%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,22%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,22%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>35,13%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>23,61%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>30,39%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>19,94%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>36,69%</t>
+    <t>35,73%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>18,92%</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E35BDFD-9009-4B9C-9E87-98C9003D77AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CC81A0-66A1-4F68-8E07-9E1121649589}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2809,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2818,13 +2818,13 @@
         <v>1283</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>1937</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5698,10 +5698,10 @@
         <v>142</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5731,13 @@
         <v>595</v>
       </c>
       <c r="J87" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
@@ -5746,13 +5746,13 @@
         <v>595</v>
       </c>
       <c r="O87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5767,13 @@
         <v>668</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>668</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5824,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -5833,13 +5833,13 @@
         <v>822</v>
       </c>
       <c r="J89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -5848,13 +5848,13 @@
         <v>1475</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5884,13 @@
         <v>2295</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="L90" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M90" s="7">
         <v>3</v>
@@ -5899,13 +5899,13 @@
         <v>2295</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P90" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="Q90" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,10 +5920,10 @@
         <v>1639</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>165</v>
@@ -6083,7 +6083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5AFBE1-F043-4CC1-83D7-21218B14F2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89197BF-4014-4E2C-8837-9DB5018867BF}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7286,7 +7286,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7295,7 +7295,7 @@
         <v>891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
@@ -7310,13 +7310,13 @@
         <v>1460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7331,13 @@
         <v>626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
